--- a/IMKL2.x/4-waardelijsten/IMKL-Waardelijsten-2.x-uitgebreid - doorontwikkeling.xlsx
+++ b/IMKL2.x/4-waardelijsten/IMKL-Waardelijsten-2.x-uitgebreid - doorontwikkeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtinggeonovum-my.sharepoint.com/personal/p_janssen_geonovum_nl/Documents/Documenten/GitHub/imkl2015-review/IMKL2.x/4-waardelijsten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl2015-review\IMKL2.x\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{EBEC5BB1-9D74-4C4F-986C-F11E27AD2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEB16A5C-1F5C-4B2C-AB7A-90207AAA3200}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5080922-0115-4236-9A46-29C2E3A7FF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28320" yWindow="-7410" windowWidth="20730" windowHeight="13545" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Waarden!$A$1:$H$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Waarden!$A$1:$H$456</definedName>
     <definedName name="IMKL">[1]Toelichting!$B$22</definedName>
     <definedName name="INSPIRE">[1]Toelichting!$B$23</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1027">
   <si>
     <t>Naam</t>
   </si>
@@ -3143,6 +3143,24 @@
   </si>
   <si>
     <t>naam aangepast</t>
+  </si>
+  <si>
+    <t>https://github.com/Geonovum/imkl2015-review/issues/354</t>
+  </si>
+  <si>
+    <t>NaukeurigheidXYvalue waarde toegevoegd: fictiefIngetekend</t>
+  </si>
+  <si>
+    <t>fictiefIngetekend</t>
+  </si>
+  <si>
+    <t>fictief ingetekend</t>
+  </si>
+  <si>
+    <t>NOG DOEN</t>
+  </si>
+  <si>
+    <t>De locatie van het element is fictief ingetekend.</t>
   </si>
 </sst>
 </file>
@@ -3243,7 +3261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3311,6 +3329,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3334,7 +3364,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3408,6 +3438,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4788,12 +4824,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:J494"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5971,7 +6007,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>519</v>
       </c>
@@ -5988,7 +6024,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>85</v>
       </c>
@@ -6005,7 +6041,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>85</v>
       </c>
@@ -6022,7 +6058,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>85</v>
       </c>
@@ -6039,7 +6075,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>85</v>
       </c>
@@ -6056,7 +6092,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>85</v>
       </c>
@@ -6073,7 +6109,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>79</v>
       </c>
@@ -6090,7 +6126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>79</v>
       </c>
@@ -6107,7 +6143,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>79</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>79</v>
       </c>
@@ -6141,7 +6177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>84</v>
       </c>
@@ -6158,7 +6194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>84</v>
       </c>
@@ -6175,7 +6211,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>84</v>
       </c>
@@ -6192,7 +6228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>84</v>
       </c>
@@ -6209,24 +6245,33 @@
         <v>518</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I79" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>509</v>
       </c>
@@ -6234,10 +6279,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>866</v>
@@ -6251,10 +6296,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>866</v>
@@ -6268,16 +6313,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I82" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="J82" s="26">
-        <v>121</v>
+        <v>260</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6288,13 +6330,16 @@
         <v>9</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>506</v>
+        <v>261</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>866</v>
+        <v>262</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="J83" s="26">
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6305,16 +6350,13 @@
         <v>9</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>263</v>
+        <v>506</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="I84" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="J84" s="26">
-        <v>111</v>
+        <v>506</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6325,13 +6367,16 @@
         <v>9</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>866</v>
+        <v>263</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="J85" s="26">
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6342,10 +6387,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>866</v>
@@ -6359,10 +6404,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>866</v>
@@ -6376,10 +6421,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>866</v>
@@ -6393,10 +6438,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>630</v>
+        <v>268</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>866</v>
@@ -6410,16 +6455,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="I90" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J90" s="26">
-        <v>97</v>
+        <v>630</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6430,16 +6472,16 @@
         <v>9</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="J91" s="26">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6450,13 +6492,16 @@
         <v>9</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>866</v>
+        <v>274</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="J92" s="26">
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6467,16 +6512,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="J93" s="26">
-        <v>106</v>
+        <v>275</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6487,13 +6529,16 @@
         <v>9</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>866</v>
+        <v>276</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J94" s="26">
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6504,16 +6549,13 @@
         <v>9</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="I95" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="J95" s="26">
-        <v>115</v>
+        <v>277</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6524,13 +6566,16 @@
         <v>9</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>866</v>
+        <v>278</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="J96" s="26">
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6541,10 +6586,10 @@
         <v>9</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>866</v>
@@ -6558,10 +6603,10 @@
         <v>9</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>866</v>
@@ -6575,16 +6620,13 @@
         <v>9</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I99" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="J99" s="26">
-        <v>106</v>
+        <v>279</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6595,16 +6637,16 @@
         <v>9</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J100" s="26">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6615,13 +6657,16 @@
         <v>9</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>866</v>
+        <v>281</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="J101" s="26">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6632,16 +6677,13 @@
         <v>9</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="J102" s="26">
-        <v>118</v>
+        <v>282</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6652,16 +6694,16 @@
         <v>9</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J103" s="26">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6672,16 +6714,16 @@
         <v>9</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>868</v>
+        <v>284</v>
       </c>
       <c r="J104" s="26">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6689,19 +6731,19 @@
         <v>509</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>866</v>
+        <v>236</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="J105" s="26">
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6715,16 +6757,13 @@
         <v>92</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="I106" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="J106" s="26">
-        <v>112</v>
+        <v>286</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6738,16 +6777,16 @@
         <v>92</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>866</v>
+        <v>288</v>
+      </c>
+      <c r="I107" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="J107" s="26">
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6761,16 +6800,16 @@
         <v>92</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J108" s="26">
-        <v>97</v>
+        <v>834</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6784,13 +6823,16 @@
         <v>92</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>866</v>
+        <v>59</v>
+      </c>
+      <c r="I109" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J109" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6804,10 +6846,10 @@
         <v>92</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>349</v>
+        <v>539</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>866</v>
@@ -6824,16 +6866,13 @@
         <v>92</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="I111" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="J111" s="26">
-        <v>116</v>
+        <v>349</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6847,13 +6886,16 @@
         <v>92</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>866</v>
+        <v>540</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="J112" s="26">
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6867,10 +6909,10 @@
         <v>92</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>866</v>
@@ -6881,13 +6923,16 @@
         <v>509</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>658</v>
+        <v>295</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>658</v>
+        <v>295</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>866</v>
@@ -6901,13 +6946,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>135</v>
+        <v>658</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>533</v>
+        <v>658</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>866</v>
@@ -6921,13 +6963,13 @@
         <v>9</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>866</v>
@@ -6935,19 +6977,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>822</v>
+        <v>122</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6961,10 +7006,10 @@
         <v>93</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6978,10 +7023,10 @@
         <v>93</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>300</v>
+        <v>821</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6989,13 +7034,16 @@
         <v>510</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>642</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7006,10 +7054,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>560</v>
+        <v>297</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7017,16 +7065,13 @@
         <v>510</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7040,10 +7085,10 @@
         <v>93</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>301</v>
+        <v>559</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>820</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7057,10 +7102,10 @@
         <v>93</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7074,10 +7119,10 @@
         <v>93</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7085,13 +7130,16 @@
         <v>510</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>455</v>
+        <v>818</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7099,16 +7147,13 @@
         <v>510</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>817</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7122,10 +7167,10 @@
         <v>93</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -7139,10 +7184,10 @@
         <v>93</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>307</v>
+        <v>816</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -7150,13 +7195,16 @@
         <v>510</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>801</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -7167,10 +7215,10 @@
         <v>9</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>272</v>
+        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -7178,16 +7226,13 @@
         <v>510</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>815</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -7201,10 +7246,10 @@
         <v>93</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>641</v>
+        <v>815</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -7218,10 +7263,10 @@
         <v>93</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>310</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -7235,10 +7280,10 @@
         <v>93</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -7246,13 +7291,16 @@
         <v>510</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -7260,16 +7308,13 @@
         <v>510</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>814</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -7283,10 +7328,10 @@
         <v>93</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -7300,10 +7345,10 @@
         <v>93</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>314</v>
+        <v>813</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -7317,10 +7362,10 @@
         <v>93</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>812</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -7334,10 +7379,10 @@
         <v>93</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -7351,10 +7396,10 @@
         <v>93</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -7362,13 +7407,16 @@
         <v>510</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>271</v>
+        <v>810</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -7379,30 +7427,27 @@
         <v>9</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>510</v>
       </c>
@@ -7413,13 +7458,13 @@
         <v>93</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
         <v>510</v>
       </c>
@@ -7430,13 +7475,13 @@
         <v>93</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
         <v>510</v>
       </c>
@@ -7447,30 +7492,30 @@
         <v>93</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H149" s="25" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
         <v>510</v>
       </c>
@@ -7478,33 +7523,33 @@
         <v>9</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
         <v>510</v>
       </c>
@@ -7515,13 +7560,13 @@
         <v>93</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
         <v>510</v>
       </c>
@@ -7532,13 +7577,13 @@
         <v>93</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>510</v>
       </c>
@@ -7549,13 +7594,13 @@
         <v>93</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
         <v>510</v>
       </c>
@@ -7566,58 +7611,61 @@
         <v>93</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
         <v>510</v>
       </c>
@@ -7625,30 +7673,24 @@
         <v>9</v>
       </c>
       <c r="D159" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E159" s="25" t="s">
+      <c r="E160" s="25" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
-        <v>865</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7659,13 +7701,13 @@
         <v>9</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>866</v>
@@ -7673,16 +7715,22 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>524</v>
+        <v>865</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>657</v>
+        <v>9</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>431</v>
+        <v>122</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>545</v>
+        <v>122</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7693,10 +7741,10 @@
         <v>657</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -7707,13 +7755,10 @@
         <v>657</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="H164" s="25" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7724,13 +7769,13 @@
         <v>657</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H165" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7741,13 +7786,13 @@
         <v>657</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>563</v>
+        <v>829</v>
       </c>
       <c r="H166" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7758,10 +7803,13 @@
         <v>657</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
+      </c>
+      <c r="H167" s="25" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -7772,10 +7820,10 @@
         <v>657</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -7786,10 +7834,10 @@
         <v>657</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>455</v>
+        <v>565</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -7800,10 +7848,10 @@
         <v>657</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>842</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -7814,10 +7862,10 @@
         <v>657</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>566</v>
+        <v>842</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -7828,10 +7876,10 @@
         <v>657</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -7841,11 +7889,11 @@
       <c r="B173" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>567</v>
+      <c r="D173" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -7855,11 +7903,11 @@
       <c r="B174" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="D174" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="E174" s="25" t="s">
-        <v>826</v>
+      <c r="D174" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,13 +7918,13 @@
         <v>657</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>524</v>
       </c>
@@ -7884,13 +7932,13 @@
         <v>657</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
         <v>524</v>
       </c>
@@ -7898,10 +7946,10 @@
         <v>657</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>825</v>
+        <v>542</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,10 +7960,10 @@
         <v>657</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>543</v>
+        <v>825</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7926,10 +7974,10 @@
         <v>657</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>843</v>
+        <v>543</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -7937,16 +7985,13 @@
         <v>524</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>9</v>
+        <v>657</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="F180" s="25" t="s">
-        <v>859</v>
+        <v>450</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -7954,13 +7999,16 @@
         <v>524</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>657</v>
+        <v>9</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="E181" s="25" t="s">
-        <v>568</v>
+        <v>561</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -7971,10 +8019,10 @@
         <v>657</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -7985,10 +8033,10 @@
         <v>657</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -7999,10 +8047,10 @@
         <v>657</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>579</v>
+        <v>453</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>579</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -8013,10 +8061,10 @@
         <v>657</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>454</v>
+        <v>579</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -8024,13 +8072,13 @@
         <v>524</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>456</v>
+        <v>657</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -8040,39 +8088,39 @@
       <c r="B187" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D187" s="25" t="s">
+      <c r="D187" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="E187" s="25" t="s">
+      <c r="E188" s="25" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
+    <row r="189" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="7" t="s">
+      <c r="B189" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E189" s="7" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B189" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="25" t="s">
-        <v>626</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -8097,10 +8145,10 @@
         <v>9</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>507</v>
+        <v>627</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8110,28 +8158,28 @@
       <c r="B192" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D192" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D192" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="25" t="s">
         <v>524</v>
       </c>
       <c r="B193" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="E193" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D193" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="25" t="s">
         <v>524</v>
       </c>
@@ -8139,13 +8187,13 @@
         <v>9</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="25" t="s">
         <v>524</v>
       </c>
@@ -8153,13 +8201,13 @@
         <v>9</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="25" t="s">
         <v>524</v>
       </c>
@@ -8167,44 +8215,44 @@
         <v>9</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="25" t="s">
         <v>524</v>
       </c>
       <c r="B197" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D197" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="E197" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="F197" s="25" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D197" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="E197" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="25" t="s">
         <v>524</v>
       </c>
       <c r="B198" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E198" s="25" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D198" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="E198" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="25" t="s">
         <v>524</v>
       </c>
@@ -8212,13 +8260,13 @@
         <v>9</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>640</v>
+        <v>592</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
         <v>524</v>
       </c>
@@ -8226,13 +8274,13 @@
         <v>9</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="25" t="s">
         <v>524</v>
       </c>
@@ -8240,13 +8288,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="E201" s="31" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="E201" s="25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="25" t="s">
         <v>524</v>
       </c>
@@ -8254,13 +8302,13 @@
         <v>9</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="E202" s="25" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="25" t="s">
         <v>524</v>
       </c>
@@ -8268,13 +8316,13 @@
         <v>9</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="25" t="s">
         <v>524</v>
       </c>
@@ -8282,13 +8330,13 @@
         <v>9</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
         <v>524</v>
       </c>
@@ -8296,13 +8344,13 @@
         <v>9</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="25" t="s">
         <v>524</v>
       </c>
@@ -8310,13 +8358,13 @@
         <v>9</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>469</v>
+        <v>638</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="25" t="s">
         <v>524</v>
       </c>
@@ -8324,13 +8372,13 @@
         <v>9</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
         <v>524</v>
       </c>
@@ -8338,13 +8386,10 @@
         <v>9</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>637</v>
+        <v>470</v>
       </c>
       <c r="E208" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="H208" s="31" t="s">
-        <v>1015</v>
+        <v>639</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -8355,13 +8400,13 @@
         <v>9</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E209" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H209" s="31" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -8372,10 +8417,13 @@
         <v>9</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="E210" s="25" t="s">
-        <v>571</v>
+        <v>634</v>
+      </c>
+      <c r="H210" s="31" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -8386,13 +8434,10 @@
         <v>9</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="H211" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -8403,10 +8448,13 @@
         <v>9</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="E212" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
+      </c>
+      <c r="H212" s="25" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -8417,10 +8465,10 @@
         <v>9</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="E213" s="25" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -8431,10 +8479,10 @@
         <v>9</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E214" s="25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -8445,10 +8493,10 @@
         <v>9</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E215" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -8459,10 +8507,10 @@
         <v>9</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E216" s="25" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -8473,10 +8521,10 @@
         <v>9</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="E217" s="31" t="s">
-        <v>1017</v>
+        <v>576</v>
+      </c>
+      <c r="E217" s="25" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -8487,10 +8535,10 @@
         <v>9</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E218" s="25" t="s">
-        <v>836</v>
+        <v>577</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -8501,13 +8549,10 @@
         <v>9</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E219" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="H219" s="25" t="s">
-        <v>603</v>
+        <v>836</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -8518,13 +8563,13 @@
         <v>9</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="E220" s="25" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -8535,13 +8580,13 @@
         <v>9</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -8552,13 +8597,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -8569,13 +8614,13 @@
         <v>9</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>135</v>
+        <v>601</v>
       </c>
       <c r="E223" s="25" t="s">
-        <v>135</v>
+        <v>601</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -8586,36 +8631,33 @@
         <v>9</v>
       </c>
       <c r="D224" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E224" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H224" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E224" s="25" t="s">
+      <c r="E225" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H224" s="25" t="s">
+      <c r="H225" s="25" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B225" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D225" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E225" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H225" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
         <v>83</v>
       </c>
@@ -8626,16 +8668,16 @@
         <v>83</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E226" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
         <v>83</v>
       </c>
@@ -8646,30 +8688,36 @@
         <v>83</v>
       </c>
       <c r="D227" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E227" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H227" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B228" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D228" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E227" s="25" t="s">
+      <c r="E228" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H227" s="25" t="s">
+      <c r="H228" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B228" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="D228" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="E228" s="25" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
         <v>97</v>
       </c>
@@ -8677,13 +8725,13 @@
         <v>586</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="25" t="s">
         <v>97</v>
       </c>
@@ -8691,13 +8739,13 @@
         <v>586</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E230" s="25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="25" t="s">
         <v>97</v>
       </c>
@@ -8705,13 +8753,13 @@
         <v>586</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E231" s="25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="25" t="s">
         <v>97</v>
       </c>
@@ -8719,13 +8767,13 @@
         <v>586</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E232" s="25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="25" t="s">
         <v>97</v>
       </c>
@@ -8733,13 +8781,13 @@
         <v>586</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="25" t="s">
         <v>97</v>
       </c>
@@ -8747,13 +8795,13 @@
         <v>586</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="25" t="s">
         <v>97</v>
       </c>
@@ -8761,13 +8809,13 @@
         <v>586</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="25" t="s">
         <v>97</v>
       </c>
@@ -8775,13 +8823,13 @@
         <v>586</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="25" t="s">
         <v>97</v>
       </c>
@@ -8789,13 +8837,13 @@
         <v>586</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="25" t="s">
         <v>97</v>
       </c>
@@ -8803,13 +8851,13 @@
         <v>586</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E238" s="25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="25" t="s">
         <v>97</v>
       </c>
@@ -8817,27 +8865,24 @@
         <v>586</v>
       </c>
       <c r="D239" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E239" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D240" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E239" s="25" t="s">
+      <c r="E240" s="25" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B240" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E240" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="I240" s="7" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -8845,19 +8890,16 @@
         <v>98</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>586</v>
+        <v>9</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="I241" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="J241" s="26">
-        <v>116</v>
+        <v>254</v>
+      </c>
+      <c r="I241" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -8868,16 +8910,16 @@
         <v>586</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>393</v>
+        <v>540</v>
       </c>
       <c r="J242" s="26">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -8888,16 +8930,16 @@
         <v>586</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I243" s="26" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="J243" s="26">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -8908,10 +8950,10 @@
         <v>586</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>890</v>
+        <v>394</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>890</v>
+        <v>394</v>
       </c>
       <c r="I244" s="26" t="s">
         <v>424</v>
@@ -8928,13 +8970,16 @@
         <v>586</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>395</v>
+        <v>890</v>
       </c>
       <c r="E245" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="I245" s="7" t="s">
-        <v>866</v>
+        <v>890</v>
+      </c>
+      <c r="I245" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J245" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -8945,10 +8990,10 @@
         <v>586</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I246" s="7" t="s">
         <v>866</v>
@@ -8962,16 +9007,13 @@
         <v>586</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="I247" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="J247" s="26">
-        <v>117</v>
+        <v>396</v>
+      </c>
+      <c r="I247" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -8979,13 +9021,13 @@
         <v>98</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>9</v>
+        <v>586</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I248" s="26" t="s">
         <v>424</v>
@@ -8999,19 +9041,19 @@
         <v>98</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>866</v>
+        <v>398</v>
+      </c>
+      <c r="I249" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J249" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -9025,10 +9067,10 @@
         <v>55</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>399</v>
+        <v>56</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>400</v>
+        <v>57</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>866</v>
@@ -9045,16 +9087,13 @@
         <v>55</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="I251" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="J251" s="26">
-        <v>100</v>
+        <v>400</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -9068,16 +9107,16 @@
         <v>55</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="J252" s="26">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -9091,13 +9130,16 @@
         <v>55</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E253" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>866</v>
+        <v>129</v>
+      </c>
+      <c r="I253" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J253" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -9111,10 +9153,10 @@
         <v>55</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E254" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I254" s="7" t="s">
         <v>866</v>
@@ -9131,16 +9173,13 @@
         <v>55</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="I255" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="J255" s="26">
-        <v>119</v>
+        <v>406</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -9154,13 +9193,16 @@
         <v>55</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>866</v>
+        <v>408</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="J256" s="26">
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -9174,10 +9216,10 @@
         <v>55</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>866</v>
@@ -9188,19 +9230,19 @@
         <v>98</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>58</v>
+        <v>411</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I258" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J258" s="26">
-        <v>97</v>
+        <v>412</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -9211,16 +9253,16 @@
         <v>9</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="E259" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H259" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="I259" s="7" t="s">
-        <v>866</v>
+        <v>59</v>
+      </c>
+      <c r="I259" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J259" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -9231,13 +9273,13 @@
         <v>9</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E260" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H260" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I260" s="7" t="s">
         <v>866</v>
@@ -9245,22 +9287,22 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C261" s="25" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>413</v>
+        <v>122</v>
       </c>
       <c r="E261" s="25" t="s">
-        <v>837</v>
+        <v>122</v>
       </c>
       <c r="H261" s="25" t="s">
-        <v>414</v>
+        <v>534</v>
+      </c>
+      <c r="I261" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -9274,13 +9316,13 @@
         <v>99</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E262" s="25" t="s">
-        <v>416</v>
+        <v>837</v>
       </c>
       <c r="H262" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -9294,13 +9336,13 @@
         <v>99</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E263" s="25" t="s">
-        <v>838</v>
+        <v>416</v>
       </c>
       <c r="H263" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -9314,30 +9356,36 @@
         <v>99</v>
       </c>
       <c r="D264" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E264" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="H264" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D265" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="E264" s="25" t="s">
+      <c r="E265" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="F264" s="25" t="s">
+      <c r="F265" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="H264" s="25" t="s">
+      <c r="H265" s="25" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="B265" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="E265" s="7" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="266" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9348,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="267" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9362,10 +9410,10 @@
         <v>9</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
     </row>
     <row r="268" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9376,10 +9424,10 @@
         <v>9</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="269" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9390,10 +9438,10 @@
         <v>9</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9404,10 +9452,10 @@
         <v>9</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
     </row>
     <row r="271" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9418,10 +9466,10 @@
         <v>9</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9432,10 +9480,10 @@
         <v>9</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9446,10 +9494,10 @@
         <v>9</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9460,10 +9508,10 @@
         <v>9</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>731</v>
+        <v>675</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9474,10 +9522,10 @@
         <v>9</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9488,10 +9536,10 @@
         <v>9</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9502,10 +9550,10 @@
         <v>9</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9516,10 +9564,10 @@
         <v>9</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>691</v>
+        <v>732</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9530,10 +9578,10 @@
         <v>9</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9544,10 +9592,10 @@
         <v>9</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>774</v>
+        <v>692</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9558,10 +9606,10 @@
         <v>9</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>676</v>
+        <v>775</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9572,10 +9620,10 @@
         <v>9</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>734</v>
+        <v>676</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9586,10 +9634,10 @@
         <v>9</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9600,10 +9648,10 @@
         <v>9</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9614,10 +9662,10 @@
         <v>9</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>697</v>
+        <v>735</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9628,10 +9676,10 @@
         <v>9</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9642,10 +9690,10 @@
         <v>9</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>759</v>
+        <v>698</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9656,10 +9704,10 @@
         <v>9</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>699</v>
+        <v>759</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9670,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9684,10 +9732,10 @@
         <v>9</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9698,10 +9746,10 @@
         <v>9</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9712,10 +9760,10 @@
         <v>9</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9726,10 +9774,10 @@
         <v>9</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>677</v>
+        <v>742</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9740,10 +9788,10 @@
         <v>9</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>743</v>
+        <v>677</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9754,10 +9802,10 @@
         <v>9</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9768,10 +9816,10 @@
         <v>9</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9782,10 +9830,10 @@
         <v>9</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>708</v>
+        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9796,10 +9844,10 @@
         <v>9</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9810,10 +9858,10 @@
         <v>9</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9824,10 +9872,10 @@
         <v>9</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9838,10 +9886,10 @@
         <v>9</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9852,10 +9900,10 @@
         <v>9</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9866,10 +9914,10 @@
         <v>9</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9880,10 +9928,10 @@
         <v>9</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="305" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9894,10 +9942,10 @@
         <v>9</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="306" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9908,10 +9956,10 @@
         <v>9</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="307" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9922,10 +9970,10 @@
         <v>9</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="308" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9936,10 +9984,10 @@
         <v>9</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="309" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9950,10 +9998,10 @@
         <v>9</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="310" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9964,10 +10012,10 @@
         <v>9</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="311" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9978,10 +10026,10 @@
         <v>9</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
     </row>
     <row r="312" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9992,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
     </row>
     <row r="313" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10006,10 +10054,10 @@
         <v>9</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
     </row>
     <row r="314" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10020,10 +10068,10 @@
         <v>9</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
     </row>
     <row r="315" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10034,27 +10082,24 @@
         <v>9</v>
       </c>
       <c r="D315" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="E315" s="7" t="s">
+      <c r="E316" s="7" t="s">
         <v>758</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A316" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="B316" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D316" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E316" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="I316" s="7" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -10065,10 +10110,10 @@
         <v>9</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E317" s="25" t="s">
-        <v>249</v>
+        <v>835</v>
       </c>
       <c r="I317" s="7" t="s">
         <v>866</v>
@@ -10082,16 +10127,13 @@
         <v>9</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="I318" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="J318" s="26">
-        <v>117</v>
+        <v>249</v>
+      </c>
+      <c r="I318" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -10102,16 +10144,16 @@
         <v>9</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="I319" s="26" t="s">
-        <v>220</v>
+        <v>424</v>
       </c>
       <c r="J319" s="26">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -10122,13 +10164,16 @@
         <v>9</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E320" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="I320" s="7" t="s">
-        <v>866</v>
+        <v>220</v>
+      </c>
+      <c r="I320" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J320" s="26">
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -10139,10 +10184,10 @@
         <v>9</v>
       </c>
       <c r="D321" s="25" t="s">
-        <v>532</v>
+        <v>251</v>
       </c>
       <c r="E321" s="25" t="s">
-        <v>532</v>
+        <v>251</v>
       </c>
       <c r="I321" s="7" t="s">
         <v>866</v>
@@ -10156,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="D322" s="25" t="s">
-        <v>252</v>
+        <v>532</v>
       </c>
       <c r="E322" s="25" t="s">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="I322" s="7" t="s">
         <v>866</v>
@@ -10173,10 +10218,10 @@
         <v>9</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E323" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I323" s="7" t="s">
         <v>866</v>
@@ -10190,10 +10235,10 @@
         <v>9</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E324" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I324" s="7" t="s">
         <v>866</v>
@@ -10207,16 +10252,13 @@
         <v>9</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>673</v>
+        <v>255</v>
       </c>
       <c r="E325" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="I325" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="J325" s="26">
-        <v>99</v>
+        <v>255</v>
+      </c>
+      <c r="I325" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -10227,16 +10269,16 @@
         <v>9</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>58</v>
+        <v>673</v>
       </c>
       <c r="E326" s="25" t="s">
-        <v>59</v>
+        <v>673</v>
       </c>
       <c r="I326" s="26" t="s">
-        <v>129</v>
+        <v>673</v>
       </c>
       <c r="J326" s="26">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -10247,16 +10289,16 @@
         <v>9</v>
       </c>
       <c r="D327" s="25" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="E327" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H327" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="I327" s="7" t="s">
-        <v>866</v>
+        <v>59</v>
+      </c>
+      <c r="I327" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J327" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -10267,13 +10309,13 @@
         <v>9</v>
       </c>
       <c r="D328" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E328" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H328" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I328" s="7" t="s">
         <v>866</v>
@@ -10281,16 +10323,22 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="25" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B329" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="25" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="E329" s="25" t="s">
-        <v>830</v>
+        <v>122</v>
+      </c>
+      <c r="H329" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="I329" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -10301,10 +10349,10 @@
         <v>9</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E330" s="25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -10315,10 +10363,10 @@
         <v>9</v>
       </c>
       <c r="D331" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -10329,13 +10377,10 @@
         <v>9</v>
       </c>
       <c r="D332" s="25" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="E332" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H332" s="25" t="s">
-        <v>533</v>
+        <v>832</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -10346,33 +10391,33 @@
         <v>9</v>
       </c>
       <c r="D333" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E333" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H333" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E333" s="25" t="s">
+      <c r="E334" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H333" s="25" t="s">
+      <c r="H334" s="25" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A334" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B334" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D334" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E334" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H334" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A335" s="25" t="s">
         <v>86</v>
       </c>
@@ -10380,16 +10425,16 @@
         <v>9</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E335" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H335" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="25" t="s">
         <v>86</v>
       </c>
@@ -10397,13 +10442,13 @@
         <v>9</v>
       </c>
       <c r="D336" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E336" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H336" s="25" t="s">
-        <v>580</v>
+        <v>157</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -10414,16 +10459,16 @@
         <v>9</v>
       </c>
       <c r="D337" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E337" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H337" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A338" s="25" t="s">
         <v>86</v>
       </c>
@@ -10431,16 +10476,16 @@
         <v>9</v>
       </c>
       <c r="D338" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H338" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="25" t="s">
         <v>86</v>
       </c>
@@ -10448,16 +10493,16 @@
         <v>9</v>
       </c>
       <c r="D339" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E339" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H339" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="25" t="s">
         <v>86</v>
       </c>
@@ -10465,13 +10510,13 @@
         <v>9</v>
       </c>
       <c r="D340" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E340" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H340" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -10482,13 +10527,13 @@
         <v>9</v>
       </c>
       <c r="D341" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E341" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H341" s="25" t="s">
-        <v>891</v>
+        <v>170</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -10499,16 +10544,16 @@
         <v>9</v>
       </c>
       <c r="D342" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E342" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H342" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A343" s="25" t="s">
         <v>86</v>
       </c>
@@ -10516,13 +10561,13 @@
         <v>9</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E343" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H343" s="25" t="s">
-        <v>581</v>
+        <v>173</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10533,16 +10578,16 @@
         <v>9</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E344" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H344" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" ht="360" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="25" t="s">
         <v>86</v>
       </c>
@@ -10550,16 +10595,16 @@
         <v>9</v>
       </c>
       <c r="D345" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E345" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H345" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="360" x14ac:dyDescent="0.3">
       <c r="A346" s="25" t="s">
         <v>86</v>
       </c>
@@ -10567,13 +10612,13 @@
         <v>9</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H346" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -10584,16 +10629,16 @@
         <v>9</v>
       </c>
       <c r="D347" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H347" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A348" s="25" t="s">
         <v>86</v>
       </c>
@@ -10601,30 +10646,30 @@
         <v>9</v>
       </c>
       <c r="D348" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E348" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H348" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A349" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B349" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E348" s="25" t="s">
+      <c r="E349" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H348" s="25" t="s">
+      <c r="H349" s="25" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A349" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B349" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D349" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E349" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="I349" s="7" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -10635,16 +10680,13 @@
         <v>9</v>
       </c>
       <c r="D350" s="25" t="s">
-        <v>422</v>
+        <v>254</v>
       </c>
       <c r="E350" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="I350" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="J350" s="26">
-        <v>105</v>
+        <v>254</v>
+      </c>
+      <c r="I350" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -10655,16 +10697,16 @@
         <v>9</v>
       </c>
       <c r="D351" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E351" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I351" s="26" t="s">
-        <v>868</v>
+        <v>422</v>
       </c>
       <c r="J351" s="26">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -10675,25 +10717,16 @@
         <v>9</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E352" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="F352" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G352" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="H352" s="25" t="s">
-        <v>667</v>
+        <v>423</v>
       </c>
       <c r="I352" s="26" t="s">
-        <v>424</v>
+        <v>868</v>
       </c>
       <c r="J352" s="26">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -10704,13 +10737,25 @@
         <v>9</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="E353" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="I353" s="7" t="s">
-        <v>866</v>
+        <v>424</v>
+      </c>
+      <c r="F353" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G353" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="H353" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="I353" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J353" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -10721,10 +10766,10 @@
         <v>9</v>
       </c>
       <c r="D354" s="25" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="E354" s="25" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="I354" s="7" t="s">
         <v>866</v>
@@ -10738,10 +10783,10 @@
         <v>9</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E355" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I355" s="7" t="s">
         <v>866</v>
@@ -10755,13 +10800,10 @@
         <v>9</v>
       </c>
       <c r="D356" s="25" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="E356" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="H356" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I356" s="7" t="s">
         <v>866</v>
@@ -10775,10 +10817,13 @@
         <v>9</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>884</v>
+        <v>390</v>
+      </c>
+      <c r="H357" s="25" t="s">
+        <v>427</v>
       </c>
       <c r="I357" s="7" t="s">
         <v>866</v>
@@ -10792,10 +10837,10 @@
         <v>9</v>
       </c>
       <c r="D358" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E358" s="25" t="s">
-        <v>430</v>
+        <v>884</v>
       </c>
       <c r="I358" s="7" t="s">
         <v>866</v>
@@ -10809,16 +10854,13 @@
         <v>9</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="E359" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I359" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J359" s="26">
-        <v>97</v>
+        <v>430</v>
+      </c>
+      <c r="I359" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -10829,16 +10871,16 @@
         <v>9</v>
       </c>
       <c r="D360" s="25" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="E360" s="25" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="I360" s="26" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="J360" s="26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -10849,16 +10891,16 @@
         <v>9</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E361" s="25" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I361" s="26" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="J361" s="26">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -10869,16 +10911,16 @@
         <v>9</v>
       </c>
       <c r="D362" s="25" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="E362" s="25" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="I362" s="26" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="J362" s="26">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -10889,16 +10931,16 @@
         <v>9</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="E363" s="25" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="I363" s="26" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="J363" s="26">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -10909,16 +10951,16 @@
         <v>9</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E364" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I364" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J364" s="26">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -10929,16 +10971,16 @@
         <v>9</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="E365" s="25" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="I365" s="26" t="s">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="J365" s="26">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -10949,16 +10991,16 @@
         <v>9</v>
       </c>
       <c r="D366" s="25" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="E366" s="25" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="I366" s="26" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="J366" s="26">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -10969,16 +11011,16 @@
         <v>9</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E367" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H367" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="I367" s="7" t="s">
-        <v>866</v>
+        <v>8</v>
+      </c>
+      <c r="I367" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J367" s="26">
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -10989,36 +11031,39 @@
         <v>9</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E368" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H368" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I368" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="25" t="s">
-        <v>621</v>
+        <v>100</v>
       </c>
       <c r="B369" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>620</v>
+        <v>122</v>
       </c>
       <c r="E369" s="25" t="s">
-        <v>620</v>
+        <v>122</v>
       </c>
       <c r="H369" s="25" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="I369" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="25" t="s">
         <v>621</v>
       </c>
@@ -11026,16 +11071,16 @@
         <v>9</v>
       </c>
       <c r="D370" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E370" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H370" s="25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="25" t="s">
         <v>621</v>
       </c>
@@ -11043,36 +11088,33 @@
         <v>9</v>
       </c>
       <c r="D371" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="E371" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="H371" s="25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A372" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="E371" s="25" t="s">
+      <c r="E372" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="H371" s="25" t="s">
+      <c r="H372" s="25" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B372" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D372" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E372" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F372" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G372" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="25" t="s">
         <v>47</v>
       </c>
@@ -11080,19 +11122,19 @@
         <v>9</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E373" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F373" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G373" s="25" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="25" t="s">
         <v>47</v>
       </c>
@@ -11100,19 +11142,19 @@
         <v>9</v>
       </c>
       <c r="D374" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E374" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F374" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G374" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="25" t="s">
         <v>47</v>
       </c>
@@ -11120,19 +11162,19 @@
         <v>9</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>477</v>
+        <v>50</v>
       </c>
       <c r="E375" s="25" t="s">
-        <v>477</v>
+        <v>50</v>
       </c>
       <c r="F375" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G375" s="25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="25" t="s">
         <v>47</v>
       </c>
@@ -11140,19 +11182,19 @@
         <v>9</v>
       </c>
       <c r="D376" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E376" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F376" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G376" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="25" t="s">
         <v>47</v>
       </c>
@@ -11160,19 +11202,19 @@
         <v>9</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E377" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F377" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G377" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="25" t="s">
         <v>47</v>
       </c>
@@ -11180,19 +11222,19 @@
         <v>9</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E378" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F378" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G378" s="25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="25" t="s">
         <v>47</v>
       </c>
@@ -11200,19 +11242,19 @@
         <v>9</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E379" s="25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F379" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G379" s="25" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="25" t="s">
         <v>47</v>
       </c>
@@ -11220,19 +11262,19 @@
         <v>9</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E380" s="25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F380" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G380" s="25" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="25" t="s">
         <v>47</v>
       </c>
@@ -11240,19 +11282,19 @@
         <v>9</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E381" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F381" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G381" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="25" t="s">
         <v>47</v>
       </c>
@@ -11260,19 +11302,19 @@
         <v>9</v>
       </c>
       <c r="D382" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E382" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F382" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G382" s="25" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="25" t="s">
         <v>47</v>
       </c>
@@ -11280,19 +11322,19 @@
         <v>9</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E383" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F383" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G383" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="25" t="s">
         <v>47</v>
       </c>
@@ -11300,16 +11342,16 @@
         <v>9</v>
       </c>
       <c r="D384" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E384" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F384" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G384" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
@@ -11320,16 +11362,16 @@
         <v>9</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E385" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F385" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G385" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -11340,16 +11382,16 @@
         <v>9</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E386" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F386" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G386" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
@@ -11360,16 +11402,16 @@
         <v>9</v>
       </c>
       <c r="D387" s="25" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="E387" s="25" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="F387" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G387" s="25" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -11380,16 +11422,16 @@
         <v>9</v>
       </c>
       <c r="D388" s="25" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="F388" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G388" s="25" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
@@ -11400,16 +11442,16 @@
         <v>9</v>
       </c>
       <c r="D389" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E389" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F389" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G389" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
@@ -11420,16 +11462,16 @@
         <v>9</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E390" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F390" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G390" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
@@ -11440,16 +11482,16 @@
         <v>9</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E391" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F391" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G391" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -11460,16 +11502,16 @@
         <v>9</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F392" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G392" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
@@ -11480,16 +11522,16 @@
         <v>9</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E393" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F393" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G393" s="25" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
@@ -11500,16 +11542,16 @@
         <v>9</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E394" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F394" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G394" s="25" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
@@ -11520,16 +11562,16 @@
         <v>9</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E395" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F395" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G395" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
@@ -11540,16 +11582,16 @@
         <v>9</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E396" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F396" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G396" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
@@ -11560,16 +11602,16 @@
         <v>9</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E397" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F397" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G397" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
@@ -11580,16 +11622,16 @@
         <v>9</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E398" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F398" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G398" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
@@ -11600,16 +11642,16 @@
         <v>9</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E399" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F399" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G399" s="25" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
@@ -11620,19 +11662,19 @@
         <v>9</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>394</v>
+        <v>504</v>
       </c>
       <c r="E400" s="25" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="F400" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G400" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="25" t="s">
         <v>47</v>
       </c>
@@ -11640,22 +11682,19 @@
         <v>9</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="E401" s="25" t="s">
-        <v>516</v>
+        <v>394</v>
       </c>
       <c r="F401" s="25" t="s">
         <v>45</v>
       </c>
       <c r="G401" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="H401" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="25" t="s">
         <v>47</v>
       </c>
@@ -11663,13 +11702,19 @@
         <v>9</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="E402" s="25" t="s">
-        <v>135</v>
+        <v>516</v>
+      </c>
+      <c r="F402" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G402" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="H402" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -11680,33 +11725,30 @@
         <v>9</v>
       </c>
       <c r="D403" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E403" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H403" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B404" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D404" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E403" s="25" t="s">
+      <c r="E404" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H403" s="25" t="s">
+      <c r="H404" s="25" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A404" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B404" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C404" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D404" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E404" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="H404" s="25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -11720,16 +11762,16 @@
         <v>87</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E405" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H405" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A406" s="25" t="s">
         <v>87</v>
       </c>
@@ -11740,16 +11782,16 @@
         <v>87</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H406" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="25" t="s">
         <v>87</v>
       </c>
@@ -11760,30 +11802,33 @@
         <v>87</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H407" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A408" s="25" t="s">
-        <v>526</v>
+        <v>87</v>
       </c>
       <c r="B408" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C408" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D408" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="H408" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -11797,10 +11842,10 @@
         <v>88</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -11814,10 +11859,10 @@
         <v>88</v>
       </c>
       <c r="D410" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11831,10 +11876,10 @@
         <v>88</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -11848,10 +11893,10 @@
         <v>88</v>
       </c>
       <c r="D412" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E412" s="25" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -11865,10 +11910,10 @@
         <v>88</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E413" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -11876,36 +11921,33 @@
         <v>526</v>
       </c>
       <c r="B414" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C414" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="D414" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E414" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B415" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D415" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E414" s="25" t="s">
+      <c r="E415" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H414" s="25" t="s">
+      <c r="H415" s="25" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A415" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="B415" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C415" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="D415" s="25" t="s">
-        <v>790</v>
-      </c>
-      <c r="E415" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="H415" s="25" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -11919,16 +11961,16 @@
         <v>786</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E416" s="25" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H416" s="25" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="25" t="s">
         <v>786</v>
       </c>
@@ -11939,33 +11981,33 @@
         <v>786</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E417" s="25" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H417" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="25" t="s">
-        <v>89</v>
+        <v>786</v>
       </c>
       <c r="B418" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C418" s="25" t="s">
-        <v>89</v>
+        <v>786</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>206</v>
+        <v>792</v>
       </c>
       <c r="E418" s="25" t="s">
-        <v>207</v>
+        <v>841</v>
       </c>
       <c r="H418" s="25" t="s">
-        <v>208</v>
+        <v>789</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
@@ -11979,16 +12021,16 @@
         <v>89</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E419" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H419" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="25" t="s">
         <v>89</v>
       </c>
@@ -11999,30 +12041,33 @@
         <v>89</v>
       </c>
       <c r="D420" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E420" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H420" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A421" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B421" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D421" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E420" s="25" t="s">
+      <c r="E421" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H420" s="25" t="s">
+      <c r="H421" s="25" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A421" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B421" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D421" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E421" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="I421" s="7" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -12033,16 +12078,13 @@
         <v>9</v>
       </c>
       <c r="D422" s="25" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E422" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="I422" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="J422" s="26">
-        <v>100</v>
+        <v>254</v>
+      </c>
+      <c r="I422" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -12053,16 +12095,16 @@
         <v>9</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="E423" s="25" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="I423" s="26" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J423" s="26">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -12073,10 +12115,10 @@
         <v>9</v>
       </c>
       <c r="D424" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E424" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I424" s="26" t="s">
         <v>276</v>
@@ -12093,13 +12135,16 @@
         <v>9</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E425" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="I425" s="7" t="s">
-        <v>866</v>
+        <v>331</v>
+      </c>
+      <c r="I425" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J425" s="26">
+        <v>106</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
@@ -12110,10 +12155,10 @@
         <v>9</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I426" s="7" t="s">
         <v>866</v>
@@ -12127,10 +12172,10 @@
         <v>9</v>
       </c>
       <c r="D427" s="25" t="s">
-        <v>539</v>
+        <v>333</v>
       </c>
       <c r="E427" s="25" t="s">
-        <v>539</v>
+        <v>333</v>
       </c>
       <c r="I427" s="7" t="s">
         <v>866</v>
@@ -12141,22 +12186,16 @@
         <v>94</v>
       </c>
       <c r="B428" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C428" s="25" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D428" s="25" t="s">
-        <v>334</v>
+        <v>539</v>
       </c>
       <c r="E428" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="I428" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="J428" s="26">
-        <v>101</v>
+        <v>539</v>
+      </c>
+      <c r="I428" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
@@ -12170,16 +12209,16 @@
         <v>95</v>
       </c>
       <c r="D429" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E429" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I429" s="26" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="J429" s="26">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -12193,10 +12232,10 @@
         <v>95</v>
       </c>
       <c r="D430" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E430" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I430" s="26" t="s">
         <v>281</v>
@@ -12216,16 +12255,16 @@
         <v>95</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E431" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I431" s="26" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="J431" s="26">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
@@ -12239,16 +12278,16 @@
         <v>95</v>
       </c>
       <c r="D432" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E432" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I432" s="26" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="J432" s="26">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -12262,13 +12301,16 @@
         <v>95</v>
       </c>
       <c r="D433" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E433" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="I433" s="7" t="s">
-        <v>866</v>
+        <v>342</v>
+      </c>
+      <c r="I433" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J433" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -12282,10 +12324,10 @@
         <v>95</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E434" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I434" s="7" t="s">
         <v>866</v>
@@ -12302,10 +12344,10 @@
         <v>95</v>
       </c>
       <c r="D435" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I435" s="7" t="s">
         <v>866</v>
@@ -12316,28 +12358,19 @@
         <v>94</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C436" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="E436" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="F436" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="H436" s="25" t="s">
-        <v>667</v>
-      </c>
-      <c r="I436" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="J436" s="26">
-        <v>117</v>
+        <v>347</v>
+      </c>
+      <c r="I436" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -12345,19 +12378,28 @@
         <v>94</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C437" s="25" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D437" s="25" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="E437" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="I437" s="7" t="s">
-        <v>866</v>
+        <v>424</v>
+      </c>
+      <c r="F437" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G437" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="H437" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="I437" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J437" s="26">
+        <v>117</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -12371,10 +12413,10 @@
         <v>95</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E438" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I438" s="7" t="s">
         <v>866</v>
@@ -12391,13 +12433,10 @@
         <v>95</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E439" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="H439" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I439" s="7" t="s">
         <v>866</v>
@@ -12414,16 +12453,16 @@
         <v>95</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E440" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="I440" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J440" s="26">
-        <v>97</v>
+        <v>353</v>
+      </c>
+      <c r="H440" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I440" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -12437,10 +12476,10 @@
         <v>95</v>
       </c>
       <c r="D441" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E441" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I441" s="26" t="s">
         <v>129</v>
@@ -12460,10 +12499,10 @@
         <v>95</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E442" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I442" s="26" t="s">
         <v>129</v>
@@ -12483,13 +12522,16 @@
         <v>95</v>
       </c>
       <c r="D443" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E443" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="I443" s="7" t="s">
-        <v>866</v>
+        <v>360</v>
+      </c>
+      <c r="I443" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J443" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -12503,19 +12545,13 @@
         <v>95</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E444" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H444" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="I444" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J444" s="26">
-        <v>104</v>
+        <v>362</v>
+      </c>
+      <c r="I444" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -12523,19 +12559,25 @@
         <v>94</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C445" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="D445" s="25" t="s">
-        <v>58</v>
+        <v>363</v>
       </c>
       <c r="E445" s="25" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="H445" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="I445" s="26" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="J445" s="26">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -12546,16 +12588,16 @@
         <v>9</v>
       </c>
       <c r="D446" s="25" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="E446" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H446" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="I446" s="7" t="s">
-        <v>866</v>
+        <v>59</v>
+      </c>
+      <c r="I446" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J446" s="26">
+        <v>97</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -12566,13 +12608,13 @@
         <v>9</v>
       </c>
       <c r="D447" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E447" s="25" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H447" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I447" s="7" t="s">
         <v>866</v>
@@ -12580,22 +12622,22 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="25" t="s">
-        <v>511</v>
+        <v>94</v>
       </c>
       <c r="B448" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C448" s="25" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D448" s="25" t="s">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="E448" s="25" t="s">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="H448" s="25" t="s">
-        <v>369</v>
+        <v>534</v>
+      </c>
+      <c r="I448" s="7" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12609,13 +12651,13 @@
         <v>96</v>
       </c>
       <c r="D449" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E449" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H449" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -12629,13 +12671,13 @@
         <v>96</v>
       </c>
       <c r="D450" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E450" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H450" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -12649,13 +12691,13 @@
         <v>96</v>
       </c>
       <c r="D451" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E451" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H451" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -12663,16 +12705,19 @@
         <v>511</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C452" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D452" s="25" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E452" s="25" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="H452" s="25" t="s">
-        <v>530</v>
+        <v>378</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -12683,13 +12728,13 @@
         <v>9</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E453" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H453" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -12700,13 +12745,13 @@
         <v>9</v>
       </c>
       <c r="D454" s="25" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="E454" s="25" t="s">
-        <v>135</v>
+        <v>528</v>
       </c>
       <c r="H454" s="25" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -12717,33 +12762,30 @@
         <v>9</v>
       </c>
       <c r="D455" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E455" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H455" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="B456" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D456" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E455" s="25" t="s">
+      <c r="E456" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H455" s="25" t="s">
+      <c r="H456" s="25" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A456" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="B456" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="C456" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="D456" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="E456" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="H456" s="25" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -12757,13 +12799,13 @@
         <v>848</v>
       </c>
       <c r="D457" s="25" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E457" s="25" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H457" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -12777,33 +12819,36 @@
         <v>848</v>
       </c>
       <c r="D458" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="E458" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="H458" s="25" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="B459" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="C459" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="D459" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="E458" s="25" t="s">
+      <c r="E459" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="H458" s="25" t="s">
+      <c r="H459" s="25" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="25" t="s">
-        <v>960</v>
-      </c>
-      <c r="B459" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="C459" s="25" t="s">
-        <v>969</v>
-      </c>
-      <c r="D459" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="E459" s="25" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="25" t="s">
         <v>960</v>
       </c>
@@ -12814,10 +12859,10 @@
         <v>969</v>
       </c>
       <c r="D460" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E460" s="25" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -12831,10 +12876,10 @@
         <v>969</v>
       </c>
       <c r="D461" s="25" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E461" s="25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -12848,10 +12893,10 @@
         <v>969</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -12865,10 +12910,10 @@
         <v>969</v>
       </c>
       <c r="D463" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E463" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -12882,10 +12927,10 @@
         <v>969</v>
       </c>
       <c r="D464" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -12899,10 +12944,10 @@
         <v>969</v>
       </c>
       <c r="D465" s="25" t="s">
-        <v>899</v>
-      </c>
-      <c r="E465" s="28" t="s">
-        <v>963</v>
+        <v>898</v>
+      </c>
+      <c r="E465" s="25" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -12916,10 +12961,10 @@
         <v>969</v>
       </c>
       <c r="D466" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E466" s="28" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -12933,10 +12978,10 @@
         <v>969</v>
       </c>
       <c r="D467" s="25" t="s">
-        <v>901</v>
-      </c>
-      <c r="E467" s="25" t="s">
-        <v>934</v>
+        <v>900</v>
+      </c>
+      <c r="E467" s="28" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -12950,10 +12995,10 @@
         <v>969</v>
       </c>
       <c r="D468" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E468" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -12967,10 +13012,10 @@
         <v>969</v>
       </c>
       <c r="D469" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E469" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -12984,10 +13029,10 @@
         <v>969</v>
       </c>
       <c r="D470" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E470" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -13001,10 +13046,10 @@
         <v>969</v>
       </c>
       <c r="D471" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E471" s="25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -13018,10 +13063,10 @@
         <v>969</v>
       </c>
       <c r="D472" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="E472" s="28" t="s">
-        <v>964</v>
+        <v>905</v>
+      </c>
+      <c r="E472" s="25" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -13035,10 +13080,10 @@
         <v>969</v>
       </c>
       <c r="D473" s="25" t="s">
-        <v>907</v>
-      </c>
-      <c r="E473" s="25" t="s">
-        <v>939</v>
+        <v>906</v>
+      </c>
+      <c r="E473" s="28" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -13052,10 +13097,10 @@
         <v>969</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E474" s="25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -13069,10 +13114,10 @@
         <v>969</v>
       </c>
       <c r="D475" s="25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E475" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -13086,10 +13131,10 @@
         <v>969</v>
       </c>
       <c r="D476" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E476" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -13103,10 +13148,10 @@
         <v>969</v>
       </c>
       <c r="D477" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E477" s="25" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -13120,10 +13165,10 @@
         <v>969</v>
       </c>
       <c r="D478" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E478" s="25" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -13137,10 +13182,10 @@
         <v>969</v>
       </c>
       <c r="D479" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E479" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -13154,10 +13199,10 @@
         <v>969</v>
       </c>
       <c r="D480" s="25" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E480" s="25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -13171,10 +13216,10 @@
         <v>969</v>
       </c>
       <c r="D481" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E481" s="25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -13188,10 +13233,10 @@
         <v>969</v>
       </c>
       <c r="D482" s="25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E482" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -13205,10 +13250,10 @@
         <v>969</v>
       </c>
       <c r="D483" s="25" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E483" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -13222,10 +13267,10 @@
         <v>969</v>
       </c>
       <c r="D484" s="25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E484" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -13239,10 +13284,10 @@
         <v>969</v>
       </c>
       <c r="D485" s="25" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E485" s="25" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -13256,10 +13301,10 @@
         <v>969</v>
       </c>
       <c r="D486" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E486" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -13273,10 +13318,10 @@
         <v>969</v>
       </c>
       <c r="D487" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E487" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -13290,10 +13335,10 @@
         <v>969</v>
       </c>
       <c r="D488" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E488" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -13307,10 +13352,10 @@
         <v>969</v>
       </c>
       <c r="D489" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E489" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -13324,10 +13369,10 @@
         <v>969</v>
       </c>
       <c r="D490" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E490" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -13341,10 +13386,10 @@
         <v>969</v>
       </c>
       <c r="D491" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E491" s="25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -13358,10 +13403,10 @@
         <v>969</v>
       </c>
       <c r="D492" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E492" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -13375,15 +13420,32 @@
         <v>969</v>
       </c>
       <c r="D493" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="E493" s="25" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="B494" s="25" t="s">
+        <v>968</v>
+      </c>
+      <c r="C494" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="D494" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="E493" s="25" t="s">
+      <c r="E494" s="25" t="s">
         <v>958</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H455" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H452">
+  <autoFilter ref="A1:H456" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H453">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -13816,10 +13878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14267,6 +14329,17 @@
       </c>
       <c r="E42" s="6" t="s">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>20240821</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
